--- a/Anying Xiang/SEP-B/Sprint 5/Rules/Rules.xlsx
+++ b/Anying Xiang/SEP-B/Sprint 5/Rules/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\G-PostGraduate\SEP-B\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D075F03-722B-40C1-B95A-8AF1CD1C121E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF437F8-4E70-44B5-B70E-24BC645F54B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>Parameter-1 tuned</t>
   </si>
@@ -219,6 +219,194 @@
   <si>
     <t>Note: Only parts of the datasets are used.</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.executor.cores' to 2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is LARGE) THEN set 'spark.executor.cores' as DEFAULT: 1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.executor.cores' to 2</t>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is LARGE) THEN set 'spark.executor.cores' to 2</t>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.io.compression.codec' to snappy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is LARGE) THEN set 'spark.io.compression.codec' to lzf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.io.compression.codec' to lzf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is LARGE) THEN set 'spark.io.compression.codec' to lzf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.serializer' to KryoSerializer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is LARGE) THEN set 'spark.serializer' as DEFAULT: JavaSerializer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.serializer' as DEFAULT: JavaSerializer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is LARGE) THEN set 'spark.serializer' as DEFAULT: JavaSerializer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.io.compression.lz4.blockSize' to 16k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is LARGE) THEN set 'spark.io.compression.lz4.blockSize' to 64k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.io.compression.lz4.blockSize' to 64k</t>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is LARGE) THEN set 'spark.io.compression.lz4.blockSize' to 16k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.shuffle.spill.compress' as DEFAULT: TRUE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is LARGE) THEN set 'spark.shuffle.spill.compress' to FALSE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.shuffle.spill.compress' as DEFAULT: TRUE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is LARGE) THEN set 'spark.shuffle.spill.compress' as DEFAULT: TRUE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.reducer.maxSizeInFlight' to 24m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is LARGE) THEN set 'spark.reducer.maxSizeInFlight‘ as DEFAULT: 48m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.reducer.maxSizeInFlight' to 72m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is LARGE) THEN set 'spark.reducer.maxSizeInFlight' as DEFAULT: 48m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.shuffle.file.buffer' to 48k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is LARGE) THEN set 'spark.shuffle.file.buffer' to 16k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.shuffle.file.buffer' to 48k</t>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is LARGE) THEN set spark.shuffle.file.buffer' as DEFAULT: 32k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.shuffle.compress’ as DEFAULT: TRUE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is LARGE) THEN set 'spark.shuffle.compress' as DEFAULT: TRUE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.shuffle.compress' as DEFAULT: TRUE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is LARGE) THEN set 'spark.shuffle.compress' to FALSE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.broadcast.blockSize' to 2m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is LARGE) THEN set 'spark.broadcast.blockSize‘ as DEFAULT: 4m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.broadcast.blockSize' to 2m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is LARGE) THEN set 'spark.broadcast.blockSize' as DEFAULT: 4m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.locality.wait' to 5s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is LARGE) THEN set 'spark.locality.wait' as DEFAULT: 3s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.locality.wait' to 1s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is LARGE) THEN set 'spark.locality.wait' to 1s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.memory.fraction' as DEFAULT: 0.6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is LARGE) THEN set 'spark.memory.fraction' as DEFAULT: 0.6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.memory.fraction' to 0.8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is LARGE) THEN set 'spark.memory.fraction' to 0.8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.memory.storageFraction' as DEFAULT: 0.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is SMALL or MEDIUM) &amp;&amp; (instance number is LARGE) THEN set 'spark.memory.storageFraction' as DEFAULT: 0.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is SMALL or MEDIUM) THEN set 'spark.memory.storageFraction' as DEFAULT: 0.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF (feature number is LARGE) &amp;&amp; (instance number is LARGE) THEN set 'spark.memory.storageFraction' as DEFAULT: 0.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -436,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -472,25 +660,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -502,13 +672,517 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
     <cellStyle name="着色 6" xfId="2" builtinId="49"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="128">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1580,10 +2254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:DD29"/>
+  <dimension ref="B2:DD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1625,86 +2299,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:108" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="19" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AC2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AD2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AE2" s="26" t="s">
         <v>43</v>
       </c>
       <c r="AM2" s="18"/>
@@ -1770,8 +2444,8 @@
       <c r="DD2" s="1"/>
     </row>
     <row r="3" spans="2:108" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1781,7 +2455,7 @@
       <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1791,27 +2465,27 @@
       <c r="J3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
       <c r="AM3" s="18"/>
       <c r="AN3" s="18"/>
       <c r="AX3" s="18"/>
@@ -2641,17 +3315,17 @@
       <c r="DD8" s="1"/>
     </row>
     <row r="9" spans="2:108" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
       <c r="AM9" s="18"/>
       <c r="AN9" s="18"/>
       <c r="AX9" s="18"/>
@@ -2719,20 +3393,20 @@
       <c r="AN10" s="13"/>
     </row>
     <row r="13" spans="2:108" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="26" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="9" t="s">
         <v>8</v>
       </c>
@@ -2755,8 +3429,8 @@
     <row r="16" spans="2:108" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
@@ -2801,7 +3475,7 @@
       <c r="E20" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="19" t="s">
         <v>10</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -2813,7 +3487,7 @@
       <c r="L20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="22" t="s">
+      <c r="P20" s="19" t="s">
         <v>1</v>
       </c>
       <c r="Q20" s="8" t="s">
@@ -2825,7 +3499,7 @@
       <c r="S20" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="W20" s="22" t="s">
+      <c r="W20" s="19" t="s">
         <v>11</v>
       </c>
       <c r="X20" s="8" t="s">
@@ -2849,7 +3523,7 @@
       <c r="E21" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="8" t="s">
         <v>12</v>
       </c>
@@ -2859,7 +3533,7 @@
       <c r="L21" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="P21" s="22"/>
+      <c r="P21" s="19"/>
       <c r="Q21" s="8" t="s">
         <v>12</v>
       </c>
@@ -2869,7 +3543,7 @@
       <c r="S21" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="W21" s="22"/>
+      <c r="W21" s="19"/>
       <c r="X21" s="8" t="s">
         <v>12</v>
       </c>
@@ -2915,7 +3589,7 @@
       </c>
     </row>
     <row r="24" spans="2:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2927,7 +3601,7 @@
       <c r="E24" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="8" t="s">
@@ -2939,7 +3613,7 @@
       <c r="L24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="22" t="s">
+      <c r="P24" s="19" t="s">
         <v>14</v>
       </c>
       <c r="Q24" s="8" t="s">
@@ -2951,7 +3625,7 @@
       <c r="S24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W24" s="22" t="s">
+      <c r="W24" s="19" t="s">
         <v>3</v>
       </c>
       <c r="X24" s="8" t="s">
@@ -2965,7 +3639,7 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
@@ -2975,7 +3649,7 @@
       <c r="E25" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="I25" s="22"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="8" t="s">
         <v>12</v>
       </c>
@@ -2985,7 +3659,7 @@
       <c r="L25" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="P25" s="22"/>
+      <c r="P25" s="19"/>
       <c r="Q25" s="8" t="s">
         <v>12</v>
       </c>
@@ -2995,7 +3669,7 @@
       <c r="S25" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="W25" s="22"/>
+      <c r="W25" s="19"/>
       <c r="X25" s="8" t="s">
         <v>12</v>
       </c>
@@ -3041,7 +3715,7 @@
       </c>
     </row>
     <row r="28" spans="2:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -3053,7 +3727,7 @@
       <c r="E28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="19" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="8" t="s">
@@ -3065,7 +3739,7 @@
       <c r="L28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="22" t="s">
+      <c r="P28" s="19" t="s">
         <v>17</v>
       </c>
       <c r="Q28" s="8" t="s">
@@ -3077,7 +3751,7 @@
       <c r="S28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="W28" s="22" t="s">
+      <c r="W28" s="19" t="s">
         <v>18</v>
       </c>
       <c r="X28" s="8" t="s">
@@ -3091,7 +3765,7 @@
       </c>
     </row>
     <row r="29" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="22"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
@@ -3101,7 +3775,7 @@
       <c r="E29" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="I29" s="22"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="8" t="s">
         <v>12</v>
       </c>
@@ -3111,7 +3785,7 @@
       <c r="L29" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="P29" s="22"/>
+      <c r="P29" s="19"/>
       <c r="Q29" s="8" t="s">
         <v>12</v>
       </c>
@@ -3121,7 +3795,7 @@
       <c r="S29" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="W29" s="22"/>
+      <c r="W29" s="19"/>
       <c r="X29" s="8" t="s">
         <v>12</v>
       </c>
@@ -3132,42 +3806,968 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+    </row>
+    <row r="37" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+    </row>
+    <row r="38" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+    </row>
+    <row r="39" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+    </row>
+    <row r="40" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+    </row>
+    <row r="41" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D41" s="1">
+        <v>6</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+    </row>
+    <row r="42" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D42" s="1">
+        <v>7</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+    </row>
+    <row r="43" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D43" s="1">
+        <v>8</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+    </row>
+    <row r="44" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D44" s="1">
+        <v>9</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+    </row>
+    <row r="45" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D45" s="1">
+        <v>10</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+    </row>
+    <row r="46" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D46" s="1">
+        <v>11</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+    </row>
+    <row r="47" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D47" s="1">
+        <v>12</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+    </row>
+    <row r="48" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D48" s="1">
+        <v>13</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D49" s="1">
+        <v>14</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+    </row>
+    <row r="50" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D50" s="1">
+        <v>15</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+    </row>
+    <row r="51" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D51" s="1">
+        <v>16</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+    </row>
+    <row r="52" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D52" s="1">
+        <v>17</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+    </row>
+    <row r="53" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D53" s="1">
+        <v>18</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+    </row>
+    <row r="54" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D54" s="1">
+        <v>19</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+    </row>
+    <row r="55" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D55" s="1">
+        <v>20</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+    </row>
+    <row r="56" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D56" s="1">
+        <v>21</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+    </row>
+    <row r="57" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D57" s="1">
+        <v>22</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+    </row>
+    <row r="58" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D58" s="1">
+        <v>23</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+    </row>
+    <row r="59" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D59" s="1">
+        <v>24</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+    </row>
+    <row r="60" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D60" s="1">
+        <v>25</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+    </row>
+    <row r="61" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D61" s="1">
+        <v>26</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+    </row>
+    <row r="62" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D62" s="1">
+        <v>27</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+    </row>
+    <row r="63" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D63" s="1">
+        <v>28</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+    </row>
+    <row r="64" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D64" s="1">
+        <v>29</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+    </row>
+    <row r="65" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D65" s="1">
+        <v>30</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+    </row>
+    <row r="66" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D66" s="1">
+        <v>31</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+    </row>
+    <row r="67" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D67" s="1">
+        <v>32</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+    </row>
+    <row r="68" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D68" s="1">
+        <v>33</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+    </row>
+    <row r="69" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D69" s="1">
+        <v>34</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
+    </row>
+    <row r="70" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D70" s="1">
+        <v>35</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+    </row>
+    <row r="71" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D71" s="1">
+        <v>36</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
+    </row>
+    <row r="72" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D72" s="1">
+        <v>37</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+    </row>
+    <row r="73" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D73" s="1">
+        <v>38</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
+    </row>
+    <row r="74" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D74" s="1">
+        <v>39</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+    </row>
+    <row r="75" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D75" s="1">
+        <v>40</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="30"/>
+    </row>
+    <row r="76" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D76" s="1">
+        <v>41</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
+    </row>
+    <row r="77" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D77" s="1">
+        <v>42</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+    </row>
+    <row r="78" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D78" s="1">
+        <v>43</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+    </row>
+    <row r="79" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D79" s="1">
+        <v>44</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
+    </row>
+    <row r="80" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D80" s="1">
+        <v>45</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
+    </row>
+    <row r="81" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D81" s="1">
+        <v>46</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+    </row>
+    <row r="82" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D82" s="1">
+        <v>47</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+    </row>
+    <row r="83" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D83" s="1">
+        <v>48</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
+  <mergeCells count="101">
+    <mergeCell ref="E81:P81"/>
+    <mergeCell ref="E82:P82"/>
+    <mergeCell ref="E83:P83"/>
+    <mergeCell ref="E76:P76"/>
+    <mergeCell ref="E77:P77"/>
+    <mergeCell ref="E78:P78"/>
+    <mergeCell ref="E79:P79"/>
+    <mergeCell ref="E80:P80"/>
+    <mergeCell ref="E71:P71"/>
+    <mergeCell ref="E72:P72"/>
+    <mergeCell ref="E73:P73"/>
+    <mergeCell ref="E74:P74"/>
+    <mergeCell ref="E75:P75"/>
+    <mergeCell ref="E66:P66"/>
+    <mergeCell ref="E67:P67"/>
+    <mergeCell ref="E68:P68"/>
+    <mergeCell ref="E69:P69"/>
+    <mergeCell ref="E70:P70"/>
+    <mergeCell ref="E61:P61"/>
+    <mergeCell ref="E62:P62"/>
+    <mergeCell ref="E63:P63"/>
+    <mergeCell ref="E64:P64"/>
+    <mergeCell ref="E65:P65"/>
+    <mergeCell ref="E56:P56"/>
+    <mergeCell ref="E57:P57"/>
+    <mergeCell ref="E58:P58"/>
+    <mergeCell ref="E59:P59"/>
+    <mergeCell ref="E60:P60"/>
+    <mergeCell ref="E51:P51"/>
+    <mergeCell ref="E52:P52"/>
+    <mergeCell ref="E53:P53"/>
+    <mergeCell ref="E54:P54"/>
+    <mergeCell ref="E55:P55"/>
+    <mergeCell ref="E46:P46"/>
+    <mergeCell ref="E47:P47"/>
+    <mergeCell ref="E48:P48"/>
+    <mergeCell ref="E49:P49"/>
+    <mergeCell ref="E50:P50"/>
+    <mergeCell ref="E41:P41"/>
+    <mergeCell ref="E42:P42"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="E44:P44"/>
+    <mergeCell ref="E45:P45"/>
+    <mergeCell ref="E36:P36"/>
+    <mergeCell ref="E37:P37"/>
+    <mergeCell ref="E38:P38"/>
+    <mergeCell ref="E39:P39"/>
+    <mergeCell ref="E40:P40"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
@@ -3184,331 +4784,557 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="I28:I29"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="R12:S12">
-    <cfRule type="containsText" dxfId="79" priority="516" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="127" priority="564" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",R12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="containsText" dxfId="78" priority="515" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="126" priority="563" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",S12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="containsText" dxfId="77" priority="513" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="125" priority="561" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="514" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="124" priority="562" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",T12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="containsText" dxfId="75" priority="423" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="123" priority="471" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",O16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="424" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="122" priority="472" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",O16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16">
-    <cfRule type="containsText" dxfId="73" priority="421" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="121" priority="469" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",AC16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="422" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="120" priority="470" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",AC16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="containsText" dxfId="71" priority="437" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="119" priority="485" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",M19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="438" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="118" priority="486" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",M19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
-    <cfRule type="containsText" dxfId="69" priority="435" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="117" priority="483" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",AA19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="436" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="116" priority="484" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",AA19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="containsText" dxfId="67" priority="449" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="115" priority="497" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",N21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="450" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="114" priority="498" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21">
-    <cfRule type="containsText" dxfId="65" priority="447" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="113" priority="495" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",AB21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="448" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="112" priority="496" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",AB21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="containsText" dxfId="63" priority="419" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="111" priority="467" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",O24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="420" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="110" priority="468" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",O24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="containsText" dxfId="61" priority="417" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="109" priority="465" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",V24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="418" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="108" priority="466" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",V24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="containsText" dxfId="59" priority="433" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="107" priority="481" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",M27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="434" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="106" priority="482" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",M27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="containsText" dxfId="57" priority="431" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="105" priority="479" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",T27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="432" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="104" priority="480" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",T27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="containsText" dxfId="55" priority="445" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="103" priority="493" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",N29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="446" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="102" priority="494" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",N29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="containsText" dxfId="53" priority="443" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="101" priority="491" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",U29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="444" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="100" priority="492" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",U29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29">
-    <cfRule type="containsText" dxfId="51" priority="409" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="99" priority="457" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",V29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="410" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="98" priority="458" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",V29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="containsText" dxfId="49" priority="413" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="97" priority="461" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",V32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="414" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="96" priority="462" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",V32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC32">
-    <cfRule type="containsText" dxfId="47" priority="411" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="95" priority="459" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",AC32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="412" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="94" priority="460" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",AC32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="containsText" dxfId="45" priority="127" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="93" priority="175" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",O14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="128" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="92" priority="176" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",O14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="containsText" dxfId="43" priority="125" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="91" priority="173" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",O13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="126" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="90" priority="174" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",O13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="41" priority="33" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="89" priority="81" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="34" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="88" priority="82" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="87" priority="79" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",K28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="86" priority="80" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",K24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",K24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",R24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",R24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y28">
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="81" priority="75" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",Y28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="80" priority="76" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",Y28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="79" priority="69" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",L24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="78" priority="70" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",L24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="77" priority="63" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",L28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="76" priority="64" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",L28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
+    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",L20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28">
+    <cfRule type="containsText" dxfId="73" priority="61" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",S28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="62" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",S28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="containsText" dxfId="71" priority="65" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",E28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="66" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",E28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="69" priority="89" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",K20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="90" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",K20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y20">
+    <cfRule type="containsText" dxfId="67" priority="87" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",Y20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="88" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",Y20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28">
+    <cfRule type="containsText" dxfId="65" priority="77" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",R28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="78" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",R28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20">
+    <cfRule type="containsText" dxfId="63" priority="71" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",Z20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="72" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",Z20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24">
+    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",S24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="68" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",S24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z28">
+    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",Z28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",Z28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",K21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",K21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",K29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",K29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",R29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",R29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y29">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",Y29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",Y29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
     <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",L20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("true",I57)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",L20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",S28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",S28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",E28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",E28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="21" priority="41" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",K20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="42" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",K20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y20">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",Y20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="40" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",Y20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R28">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",R28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="30" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",R28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z20">
-    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",Z20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",Z20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24">
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",S24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",S24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z28">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",Z28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",Z28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",K21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",K21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",D29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",K29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",K29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",R29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",R29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y29">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",Y29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",Y29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("true",I57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",I81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",J83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
